--- a/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_by_3d_spherical_inverse_gaussian_diffusion_sigma_0.1_lambda_reg_0.01.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_by_3d_spherical_inverse_gaussian_diffusion_sigma_0.1_lambda_reg_0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43252D55-322A-414D-809F-32E49929F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C4E4A-7157-4981-8EEB-C89870F75864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diffusion_inverse_1.0" sheetId="1" r:id="rId1"/>
@@ -522,13 +522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,7 +560,7 @@
         <v>0.85165243955885417</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +577,7 @@
         <v>0.93240614016445456</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -596,7 +594,7 @@
         <v>0.87378212456968707</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -613,7 +611,7 @@
         <v>0.91800588266234406</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -630,7 +628,7 @@
         <v>0.95200716783934602</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -647,7 +645,7 @@
         <v>0.92904020633093454</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -664,7 +662,7 @@
         <v>0.91960044572971744</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0.96546480284226366</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -698,7 +696,7 @@
         <v>0.9797209898876279</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -715,7 +713,7 @@
         <v>0.95724637132582568</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -732,7 +730,7 @@
         <v>0.88921279229591854</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -749,7 +747,7 @@
         <v>0.96061929042682659</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -766,7 +764,7 @@
         <v>0.93140683267577074</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -783,7 +781,7 @@
         <v>0.92460201635624739</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -800,7 +798,7 @@
         <v>0.91152334210788111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -817,7 +815,7 @@
         <v>0.97289593123629781</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -834,7 +832,7 @@
         <v>0.92393012924934581</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -851,7 +849,7 @@
         <v>0.95747799261468791</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -868,7 +866,7 @@
         <v>0.89201750966135429</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -885,7 +883,7 @@
         <v>0.88909028906006604</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -902,7 +900,7 @@
         <v>0.94461604381552533</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -919,7 +917,7 @@
         <v>0.87203795512480387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0.91559747222798316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -953,7 +951,7 @@
         <v>0.96211589180839352</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -970,7 +968,7 @@
         <v>0.89383442913192501</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -987,7 +985,7 @@
         <v>0.84632117863689449</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>0.84513038337828805</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>0.99025423284802461</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>0.98525672311888957</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>0.91470302540367088</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>0.92338566773632835</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1103,13 +1101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>0.86628616941309544</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>0.93635610229090582</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0.87366854474794686</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>0.92582198673283433</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>0.95449900097650675</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>0.92824081619967669</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1241,7 @@
         <v>0.91285434098867335</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>0.95996171282530918</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>0.97965335774254281</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>0.95455654837248927</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>0.90697461394802181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>0.94480598438931873</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>0.93436516188775776</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>0.91858822062052004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1377,7 @@
         <v>0.90876480533562043</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>0.96607154939779749</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1411,7 @@
         <v>0.92848176608281874</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1428,7 @@
         <v>0.96144614537132078</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1445,7 @@
         <v>0.88405754232021427</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1462,7 @@
         <v>0.89278524615983701</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1479,7 @@
         <v>0.92628048189610546</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>0.83766831423475485</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>0.90778157509389334</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>0.95835096605580739</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>0.90323654494513206</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1564,7 @@
         <v>0.8552024606476667</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1585,7 +1581,7 @@
         <v>0.85406205107932609</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>0.99380547279194309</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>0.97534930110323859</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>0.91847198822870202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1653,7 +1649,7 @@
         <v>0.92228162572932593</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1684,13 +1680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>0.8551468259650068</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1735,7 @@
         <v>0.93501472248109552</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>0.87502325369641965</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>0.89754621591288841</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>0.95620992280000772</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>0.93333956160197606</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1820,7 @@
         <v>0.92261968345669898</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>0.95610170630047153</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>0.98177009172236773</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>0.95091514459140059</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1888,7 @@
         <v>0.90660811062659563</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>0.94248792282651128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>0.92854024600229579</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1939,7 @@
         <v>0.92236209961642535</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1962,7 +1956,7 @@
         <v>0.88949035514125663</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>0.96790738801997844</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +1990,7 @@
         <v>0.91761775976486393</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2007,7 @@
         <v>0.9621601357819205</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>0.88563758119566438</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>0.87588518742974131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>0.92908164242073954</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>0.87561221438052728</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>0.91511802057441582</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>0.95515735487493481</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2126,7 @@
         <v>0.91054345043342377</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>0.858791587586474</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2160,7 @@
         <v>0.85950915801168226</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>0.98762469909465711</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2200,7 +2194,7 @@
         <v>0.98666069465298367</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>0.9175762633118556</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>0.9219353000091759</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2265,13 +2259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2297,7 @@
         <v>0.8692850752700757</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2314,7 @@
         <v>0.92620347023986249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>0.87462088448808939</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2348,7 @@
         <v>0.88444051735492502</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2365,7 @@
         <v>0.95203238840826521</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2382,7 @@
         <v>0.89759886731772287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2399,7 @@
         <v>0.90723847768254795</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2416,7 @@
         <v>0.95462318739441199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2433,7 @@
         <v>0.97487210820405357</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>0.94972287576455394</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>0.88974600600627096</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2484,7 @@
         <v>0.95561159458069156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2509,7 +2501,7 @@
         <v>0.93881485299776612</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2518,7 @@
         <v>0.89687790932596911</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2535,7 @@
         <v>0.88311039043185158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>0.96937236851405506</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2577,7 +2569,7 @@
         <v>0.9194901915996867</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2594,7 +2586,7 @@
         <v>0.95927704178551887</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2611,7 +2603,7 @@
         <v>0.86435200516854582</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2620,7 @@
         <v>0.87396985990297738</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>0.92736384222361112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2662,7 +2654,7 @@
         <v>0.82110538010504841</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2679,7 +2671,7 @@
         <v>0.85873040343642981</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2688,7 @@
         <v>0.94710155939595819</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2705,7 @@
         <v>0.90257769779343811</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2722,7 @@
         <v>0.84037922188019465</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2739,7 @@
         <v>0.85428275733864145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2764,7 +2756,7 @@
         <v>0.99173560802573846</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2781,7 +2773,7 @@
         <v>0.97868587791329753</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2790,7 @@
         <v>0.92371215253547201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>0.91289781910285583</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2846,13 +2838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2886,7 +2876,7 @@
         <v>0.86121107653618112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +2893,7 @@
         <v>0.92534056849491508</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2910,7 @@
         <v>0.86771696891932082</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2927,7 @@
         <v>0.89644689401733457</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2944,7 @@
         <v>0.94806663806529667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2961,7 @@
         <v>0.89512484217459298</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2988,7 +2978,7 @@
         <v>0.8845731492566673</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>0.94942975845576338</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3012,7 @@
         <v>0.95318316423215177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3039,7 +3029,7 @@
         <v>0.92912969841433579</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3046,7 @@
         <v>0.88049902808427782</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>0.90639922302578957</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3080,7 @@
         <v>0.92118113411444624</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3107,7 +3097,7 @@
         <v>0.86973822661637823</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3124,7 +3114,7 @@
         <v>0.83549322236323109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>0.94354193065980563</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3148,7 @@
         <v>0.89399151346464534</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3165,7 @@
         <v>0.94661322633850387</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3182,7 @@
         <v>0.8239461299478732</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3209,7 +3199,7 @@
         <v>0.78707167886631324</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3226,7 +3216,7 @@
         <v>0.90532182452764576</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3243,7 +3233,7 @@
         <v>0.8827650104528898</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3260,7 +3250,7 @@
         <v>0.89818810928089898</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3277,7 +3267,7 @@
         <v>0.91302500244387574</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3284,7 @@
         <v>0.9011072534318384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>0.82865333281998343</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3318,7 @@
         <v>0.84480228841732374</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3335,7 @@
         <v>0.93928411698282199</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3362,7 +3352,7 @@
         <v>0.96537587725665897</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3379,7 +3369,7 @@
         <v>0.90960023221345332</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3386,7 @@
         <v>0.89689403732917372</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3427,13 +3417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3455,7 @@
         <v>0.80444395641621824</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3472,7 @@
         <v>0.81290359582724958</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3501,7 +3489,7 @@
         <v>0.8266700185681739</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3506,7 @@
         <v>0.85042794430271518</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3535,7 +3523,7 @@
         <v>0.84790392992382235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3540,7 @@
         <v>0.79992833605797675</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3569,7 +3557,7 @@
         <v>0.83326106090298391</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3574,7 @@
         <v>0.90221613486698615</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3603,7 +3591,7 @@
         <v>0.86748004861272476</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3620,7 +3608,7 @@
         <v>0.83839830449346686</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3637,7 +3625,7 @@
         <v>0.80462758933037581</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3654,7 +3642,7 @@
         <v>0.84397618677944719</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3671,7 +3659,7 @@
         <v>0.77639529056998069</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3688,7 +3676,7 @@
         <v>0.79331653733294005</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3705,7 +3693,7 @@
         <v>0.76702720498328891</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3710,7 @@
         <v>0.78825848070428517</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3727,7 @@
         <v>0.77280089581464517</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3756,7 +3744,7 @@
         <v>0.88393096453490239</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3773,7 +3761,7 @@
         <v>0.7307122745218082</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3790,7 +3778,7 @@
         <v>0.61931120561897635</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +3795,7 @@
         <v>0.80178449928181972</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3824,7 +3812,7 @@
         <v>0.82136426244610772</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3829,7 @@
         <v>0.81252687439038351</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3858,7 +3846,7 @@
         <v>0.85349870473466771</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3875,7 +3863,7 @@
         <v>0.8199588330766725</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3892,7 +3880,7 @@
         <v>0.75331200039328927</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +3897,7 @@
         <v>0.70174437386125821</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3926,7 +3914,7 @@
         <v>0.87827061872131562</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3943,7 +3931,7 @@
         <v>0.90555540354230235</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3960,7 +3948,7 @@
         <v>0.92399413897905236</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3977,7 +3965,7 @@
         <v>0.81453332231966125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4008,13 +3996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4034,7 @@
         <v>0.69007636687153195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4051,7 @@
         <v>0.71004306485276236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4068,7 @@
         <v>0.68604727700436174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4099,7 +4085,7 @@
         <v>0.6598665484955698</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4116,7 +4102,7 @@
         <v>0.68902866325832179</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4133,7 +4119,7 @@
         <v>0.65386725510501065</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4150,7 +4136,7 @@
         <v>0.70420908616109545</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4167,7 +4153,7 @@
         <v>0.75293107576006768</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4184,7 +4170,7 @@
         <v>0.73275462536014602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4201,7 +4187,7 @@
         <v>0.7078163421685183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4204,7 @@
         <v>0.70294500658538495</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4235,7 +4221,7 @@
         <v>0.7184391180452887</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4252,7 +4238,7 @@
         <v>0.61829128665184407</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4269,7 +4255,7 @@
         <v>0.66412813640672363</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4286,7 +4272,7 @@
         <v>0.61263955115828572</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4303,7 +4289,7 @@
         <v>0.71380372724819474</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4320,7 +4306,7 @@
         <v>0.69563141179358523</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4323,7 @@
         <v>0.78743353971855135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4354,7 +4340,7 @@
         <v>0.52712954681037305</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4371,7 +4357,7 @@
         <v>0.55773313082728238</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4374,7 @@
         <v>0.65610042246638889</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4405,7 +4391,7 @@
         <v>0.64749644053356803</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4422,7 +4408,7 @@
         <v>0.75015641887880169</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4439,7 +4425,7 @@
         <v>0.79110217813003958</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4456,7 +4442,7 @@
         <v>0.66263664282628443</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4473,7 +4459,7 @@
         <v>0.58698584742911875</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4490,7 +4476,7 @@
         <v>0.56870241677456823</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4507,7 +4493,7 @@
         <v>0.72342330583982428</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4524,7 +4510,7 @@
         <v>0.69964577617037238</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4541,7 +4527,7 @@
         <v>0.7614078486140452</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4558,7 +4544,7 @@
         <v>0.68108240193153025</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
